--- a/modelos/OBAGRA4451115/OBAGRA4451115_Sell Out_metricas.xlsx
+++ b/modelos/OBAGRA4451115/OBAGRA4451115_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,22 +473,22 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="B2" t="n">
+        <v>46.70045082852853</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12.76349377767056</v>
+      </c>
+      <c r="D2" t="n">
+        <v>81.93869526138091</v>
+      </c>
+      <c r="E2" t="n">
+        <v>109</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>45026</v>
-      </c>
-      <c r="B2" t="n">
-        <v>48.63070194095167</v>
-      </c>
-      <c r="C2" t="n">
-        <v>16.84830985171966</v>
-      </c>
-      <c r="D2" t="n">
-        <v>83.1806880533364</v>
-      </c>
-      <c r="E2" t="n">
-        <v>61</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>45019</v>
       </c>
     </row>
     <row r="3">
@@ -496,13 +496,13 @@
         <v>45040</v>
       </c>
       <c r="B3" t="n">
-        <v>44.53512478433417</v>
+        <v>52.27900284749381</v>
       </c>
       <c r="C3" t="n">
-        <v>11.96081019310972</v>
+        <v>17.5156371750316</v>
       </c>
       <c r="D3" t="n">
-        <v>77.90755690830282</v>
+        <v>86.60135657643437</v>
       </c>
       <c r="E3" t="n">
         <v>53</v>
@@ -513,21 +513,41 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B4" t="n">
+        <v>45.72918828011321</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10.21809735898018</v>
+      </c>
+      <c r="D4" t="n">
+        <v>80.45170243413338</v>
+      </c>
+      <c r="E4" t="n">
+        <v>107</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45061</v>
       </c>
-      <c r="B4" t="n">
-        <v>36.98971430467668</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5.639624712150801</v>
-      </c>
-      <c r="D4" t="n">
-        <v>71.57252420734676</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="B5" t="n">
+        <v>49.37193838523996</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.98962998120611</v>
+      </c>
+      <c r="D5" t="n">
+        <v>85.53193001015757</v>
+      </c>
+      <c r="E5" t="n">
         <v>42</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F5" s="2" t="n">
         <v>45054</v>
       </c>
     </row>
@@ -597,25 +617,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>83.25220321304397</v>
+        <v>1922.552877058026</v>
       </c>
       <c r="C2" t="n">
-        <v>9.124264529979607</v>
+        <v>43.84692551431657</v>
       </c>
       <c r="D2" t="n">
-        <v>8.61481965667916</v>
+        <v>32.91582410727611</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1605941737610596</v>
+        <v>0.3333264919868425</v>
       </c>
       <c r="F2" t="n">
-        <v>0.159714626710676</v>
+        <v>0.373538919745845</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1753630111007785</v>
+        <v>0.4444131469841832</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAGRA4451115/OBAGRA4451115_Sell Out_metricas.xlsx
+++ b/modelos/OBAGRA4451115/OBAGRA4451115_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,81 +473,101 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45033</v>
+        <v>45026</v>
       </c>
       <c r="B2" t="n">
-        <v>46.70045082852853</v>
+        <v>49.23024515715057</v>
       </c>
       <c r="C2" t="n">
-        <v>12.76349377767056</v>
+        <v>17.74022694029616</v>
       </c>
       <c r="D2" t="n">
-        <v>81.93869526138091</v>
+        <v>80.3764210317627</v>
       </c>
       <c r="E2" t="n">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45026</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45040</v>
+        <v>45033</v>
       </c>
       <c r="B3" t="n">
-        <v>52.27900284749381</v>
+        <v>48.0761325166075</v>
       </c>
       <c r="C3" t="n">
-        <v>17.5156371750316</v>
+        <v>15.51890927792997</v>
       </c>
       <c r="D3" t="n">
-        <v>86.60135657643437</v>
+        <v>80.96990115525254</v>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45033</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45047</v>
+        <v>45040</v>
       </c>
       <c r="B4" t="n">
-        <v>45.72918828011321</v>
+        <v>53.63601975267819</v>
       </c>
       <c r="C4" t="n">
-        <v>10.21809735898018</v>
+        <v>20.58321911313307</v>
       </c>
       <c r="D4" t="n">
-        <v>80.45170243413338</v>
+        <v>86.19216333737255</v>
       </c>
       <c r="E4" t="n">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45040</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B5" t="n">
+        <v>47.04618582299747</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13.52015027032837</v>
+      </c>
+      <c r="D5" t="n">
+        <v>78.7370186246962</v>
+      </c>
+      <c r="E5" t="n">
+        <v>107</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45061</v>
       </c>
-      <c r="B5" t="n">
-        <v>49.37193838523996</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12.98962998120611</v>
-      </c>
-      <c r="D5" t="n">
-        <v>85.53193001015757</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="B6" t="n">
+        <v>50.66156021232668</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17.10206561849585</v>
+      </c>
+      <c r="D6" t="n">
+        <v>83.88726359588243</v>
+      </c>
+      <c r="E6" t="n">
         <v>42</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F6" s="2" t="n">
         <v>45054</v>
       </c>
     </row>
@@ -617,25 +637,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1922.552877058026</v>
+        <v>1504.026347800571</v>
       </c>
       <c r="C2" t="n">
-        <v>43.84692551431657</v>
+        <v>38.78177855385917</v>
       </c>
       <c r="D2" t="n">
-        <v>32.91582410727611</v>
+        <v>28.38900329364986</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3333264919868425</v>
+        <v>0.3060850763822294</v>
       </c>
       <c r="F2" t="n">
-        <v>0.373538919745845</v>
+        <v>0.2062276241030161</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4444131469841832</v>
+        <v>0.3933078762368729</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>0.6000000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAGRA4451115/OBAGRA4451115_Sell Out_metricas.xlsx
+++ b/modelos/OBAGRA4451115/OBAGRA4451115_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,101 +473,81 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="B2" t="n">
+        <v>43.25556678837346</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.98204900530498</v>
+      </c>
+      <c r="D2" t="n">
+        <v>77.39294593115656</v>
+      </c>
+      <c r="E2" t="n">
+        <v>109</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>45026</v>
-      </c>
-      <c r="B2" t="n">
-        <v>49.23024515715057</v>
-      </c>
-      <c r="C2" t="n">
-        <v>17.74022694029616</v>
-      </c>
-      <c r="D2" t="n">
-        <v>80.3764210317627</v>
-      </c>
-      <c r="E2" t="n">
-        <v>61</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>45019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B3" t="n">
+        <v>49.20584232415322</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12.81985697975035</v>
+      </c>
+      <c r="D3" t="n">
+        <v>84.35219152075871</v>
+      </c>
+      <c r="E3" t="n">
+        <v>53</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>45033</v>
-      </c>
-      <c r="B3" t="n">
-        <v>48.0761325166075</v>
-      </c>
-      <c r="C3" t="n">
-        <v>15.51890927792997</v>
-      </c>
-      <c r="D3" t="n">
-        <v>80.96990115525254</v>
-      </c>
-      <c r="E3" t="n">
-        <v>109</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>45026</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B4" t="n">
+        <v>42.17718653738538</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.548450766516882</v>
+      </c>
+      <c r="D4" t="n">
+        <v>75.08675658494354</v>
+      </c>
+      <c r="E4" t="n">
+        <v>107</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>45040</v>
-      </c>
-      <c r="B4" t="n">
-        <v>53.63601975267819</v>
-      </c>
-      <c r="C4" t="n">
-        <v>20.58321911313307</v>
-      </c>
-      <c r="D4" t="n">
-        <v>86.19216333737255</v>
-      </c>
-      <c r="E4" t="n">
-        <v>53</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>45033</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45047</v>
+        <v>45061</v>
       </c>
       <c r="B5" t="n">
-        <v>47.04618582299747</v>
+        <v>46.07883826224543</v>
       </c>
       <c r="C5" t="n">
-        <v>13.52015027032837</v>
+        <v>9.140733509608893</v>
       </c>
       <c r="D5" t="n">
-        <v>78.7370186246962</v>
+        <v>78.9640356190869</v>
       </c>
       <c r="E5" t="n">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45040</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="B6" t="n">
-        <v>50.66156021232668</v>
-      </c>
-      <c r="C6" t="n">
-        <v>17.10206561849585</v>
-      </c>
-      <c r="D6" t="n">
-        <v>83.88726359588243</v>
-      </c>
-      <c r="E6" t="n">
-        <v>42</v>
-      </c>
-      <c r="F6" s="2" t="n">
         <v>45054</v>
       </c>
     </row>
@@ -637,25 +617,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1504.026347800571</v>
+        <v>2138.840049391425</v>
       </c>
       <c r="C2" t="n">
-        <v>38.78177855385917</v>
+        <v>46.24759506602938</v>
       </c>
       <c r="D2" t="n">
-        <v>28.38900329364986</v>
+        <v>34.61006065308334</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3060850763822294</v>
+        <v>0.3444209254210799</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2062276241030161</v>
+        <v>0.3501375672207369</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3933078762368729</v>
+        <v>0.4748852532508847</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
